--- a/Dynamic Programing/Dynamic Programing Geeks.xlsx
+++ b/Dynamic Programing/Dynamic Programing Geeks.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\IIIT B SEM 1\Algorithms\Dynamic Programing\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\Data-Structure-and-Algorithms\Dynamic Programing\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="187">
   <si>
     <t>Basic Problems :</t>
   </si>
@@ -939,8 +939,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C187"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1070,82 +1070,109 @@
         <v>186</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C17" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C18" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C19" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C21" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C23" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C26" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C27" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C28" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C29" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>31</v>
       </c>
@@ -1316,7 +1343,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B100"/>
   <sheetViews>
-    <sheetView topLeftCell="A114" workbookViewId="0">
+    <sheetView topLeftCell="A30" workbookViewId="0">
       <selection activeCell="B136" sqref="B136"/>
     </sheetView>
   </sheetViews>

--- a/Dynamic Programing/Dynamic Programing Geeks.xlsx
+++ b/Dynamic Programing/Dynamic Programing Geeks.xlsx
@@ -5,16 +5,17 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\Data-Structure-and-Algorithms\Dynamic Programing\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\e drive\IIIT B SEM 1\Algorithms\Dynamic Programing\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Basic Problems" sheetId="1" r:id="rId1"/>
-    <sheet name="Intermediate Problems" sheetId="2" r:id="rId2"/>
-    <sheet name="Hard Problems" sheetId="3" r:id="rId3"/>
+    <sheet name="Top 20 Interview DP Problem" sheetId="4" r:id="rId2"/>
+    <sheet name="Intermediate Problems" sheetId="2" r:id="rId3"/>
+    <sheet name="Hard Problems" sheetId="3" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="hardProblems" localSheetId="0">'Hard Problems'!$A$1</definedName>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="287">
   <si>
     <t>Basic Problems :</t>
   </si>
@@ -591,13 +592,313 @@
   </si>
   <si>
     <t>Done</t>
+  </si>
+  <si>
+    <t>Problem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Status </t>
+  </si>
+  <si>
+    <t>1. Longest Common Subsequence</t>
+  </si>
+  <si>
+    <t>2. Longest Increasing Subsequence</t>
+  </si>
+  <si>
+    <t>3. Edit Distance</t>
+  </si>
+  <si>
+    <t>4. Minimum Partition</t>
+  </si>
+  <si>
+    <t>5. Ways to Cover a Distance</t>
+  </si>
+  <si>
+    <t>6. Longest Path In Matrix</t>
+  </si>
+  <si>
+    <t>7. Subset Sum Problem</t>
+  </si>
+  <si>
+    <t>8. Optimal Strategy for a Game</t>
+  </si>
+  <si>
+    <t>9. 0-1 Knapsack Problem</t>
+  </si>
+  <si>
+    <t>10. Boolean Parenthesization Problem</t>
+  </si>
+  <si>
+    <t>11. Shortest Common Supersequence</t>
+  </si>
+  <si>
+    <t>12. Matrix Chain Multiplication</t>
+  </si>
+  <si>
+    <t>13. Partition problem</t>
+  </si>
+  <si>
+    <t>14. Rod Cutting</t>
+  </si>
+  <si>
+    <t>15. Coin change problem</t>
+  </si>
+  <si>
+    <t>16. Word Break Problem</t>
+  </si>
+  <si>
+    <t>17. Maximal Product when Cutting Rope</t>
+  </si>
+  <si>
+    <t>18. Dice Throw Problem</t>
+  </si>
+  <si>
+    <t>19. Box Stacking</t>
+  </si>
+  <si>
+    <t>20. Egg Dropping Puzzle</t>
+  </si>
+  <si>
+    <t>BitonicSequence.java</t>
+  </si>
+  <si>
+    <t>BoxStacking.java</t>
+  </si>
+  <si>
+    <t>BreakMultipleWordsWithNoSpaceIntoSpace.java</t>
+  </si>
+  <si>
+    <t>BurstBalloons.java</t>
+  </si>
+  <si>
+    <t>CoinChanging.java</t>
+  </si>
+  <si>
+    <t>CoinChangingMinimumCoin.java</t>
+  </si>
+  <si>
+    <t>CountAs.java</t>
+  </si>
+  <si>
+    <t>CountNumberOfBinaryWithoutConsecutive1s.java</t>
+  </si>
+  <si>
+    <t>CountNumberOfTreePreorder.java</t>
+  </si>
+  <si>
+    <t>CountNumberOfTreesInBST.java</t>
+  </si>
+  <si>
+    <t>CutRodToMinimizeCost.java</t>
+  </si>
+  <si>
+    <t>CuttingRod.java</t>
+  </si>
+  <si>
+    <t>DecodeWays.java</t>
+  </si>
+  <si>
+    <t>DiceThrowWays.java</t>
+  </si>
+  <si>
+    <t>DistinctSubsequence.java</t>
+  </si>
+  <si>
+    <t>DungeonGame.java</t>
+  </si>
+  <si>
+    <t>EditDistance.java</t>
+  </si>
+  <si>
+    <t>EggDropping.java</t>
+  </si>
+  <si>
+    <t>ExpressionEvaluation.java</t>
+  </si>
+  <si>
+    <t>FibonacciSeries.java</t>
+  </si>
+  <si>
+    <t>Immutable2DSumRangeQuery.java</t>
+  </si>
+  <si>
+    <t>Knapsack01.java</t>
+  </si>
+  <si>
+    <t>LongestCommonSubsequence.java</t>
+  </si>
+  <si>
+    <t>LongestCommonSubstring.java</t>
+  </si>
+  <si>
+    <t>LongestEvenLengthSubstringOfEqualHalf.java</t>
+  </si>
+  <si>
+    <t>LongestIncreasingPath.java</t>
+  </si>
+  <si>
+    <t>LongestIncreasingSubsequence.java</t>
+  </si>
+  <si>
+    <t>LongestPalindromicSubsequence.java</t>
+  </si>
+  <si>
+    <t>MatrixMultiplicationCost.java</t>
+  </si>
+  <si>
+    <t>MaxSumForNonAdjacentElements.java</t>
+  </si>
+  <si>
+    <t>MaximizeSkiGates.java</t>
+  </si>
+  <si>
+    <t>MaximumLengthChainPair.java</t>
+  </si>
+  <si>
+    <t>MaximumProductCutting.java</t>
+  </si>
+  <si>
+    <t>MaximumRectangularSubmatrixOf1s.java</t>
+  </si>
+  <si>
+    <t>MaximumSizeSubMatrix.java</t>
+  </si>
+  <si>
+    <t>MaximumSumSubsequence.java</t>
+  </si>
+  <si>
+    <t>MinCostPath.java</t>
+  </si>
+  <si>
+    <t>MinJumpToReachEnd.java</t>
+  </si>
+  <si>
+    <t>MinimumCostTrainTicket.java</t>
+  </si>
+  <si>
+    <t>MinimumNumberOfPerfectSquares.java</t>
+  </si>
+  <si>
+    <t>MinimumTriangleSum.java</t>
+  </si>
+  <si>
+    <t>NPotGold.java</t>
+  </si>
+  <si>
+    <t>NumberOfPathsInMxNMatrix.java</t>
+  </si>
+  <si>
+    <t>NumberOfWaysToScorePoints.java</t>
+  </si>
+  <si>
+    <t>OptimalTreeSearch.java</t>
+  </si>
+  <si>
+    <t>PaintHouse.java</t>
+  </si>
+  <si>
+    <t>PalindromePartition.java</t>
+  </si>
+  <si>
+    <t>PhoneDialNumberOfCombinationOfSizeK.java</t>
+  </si>
+  <si>
+    <t>RegexMatching.java</t>
+  </si>
+  <si>
+    <t>RemoveFromEndToMake2IntoMinGreaterThanMax.java</t>
+  </si>
+  <si>
+    <t>ScrambledString.java</t>
+  </si>
+  <si>
+    <t>StockBuySellKTransactions.java</t>
+  </si>
+  <si>
+    <t>SubRectangularMatrixWithMaximumSum.java</t>
+  </si>
+  <si>
+    <t>SubsetSum.java</t>
+  </si>
+  <si>
+    <t>SubsquareSurrounedByXs.java</t>
+  </si>
+  <si>
+    <t>SymbolExpressionEvaluation.java</t>
+  </si>
+  <si>
+    <t>TextJustification.java</t>
+  </si>
+  <si>
+    <t>TwoStringInterleavingToFormThird.java</t>
+  </si>
+  <si>
+    <t>UglyNumbers.java</t>
+  </si>
+  <si>
+    <t>WeightedJobSchedulingMaximumProfit.java</t>
+  </si>
+  <si>
+    <t>WildCardMatching.java</t>
+  </si>
+  <si>
+    <t>TOP Questions by Tushar Roy</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Its already done  in local</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Done </t>
+  </si>
+  <si>
+    <t>Its done in local, its to tricky to implement. Take care of it next time</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Its done in local as well as on leet code </t>
+  </si>
+  <si>
+    <t>Its already done on leet code</t>
+  </si>
+  <si>
+    <t>Its already done in local as this is the same problem solved by murli sir</t>
+  </si>
+  <si>
+    <t>Its already done in local, you know this solution</t>
+  </si>
+  <si>
+    <t>Its already done in local</t>
+  </si>
+  <si>
+    <t>Its again done in local</t>
+  </si>
+  <si>
+    <t>Its done in local</t>
+  </si>
+  <si>
+    <t>Longest Valid Parentheses</t>
+  </si>
+  <si>
+    <t>leet code problem no 32</t>
+  </si>
+  <si>
+    <t>leet code problem no 44</t>
+  </si>
+  <si>
+    <t>Done in local</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -620,16 +921,48 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF6F8FA"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -637,12 +970,27 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" shrinkToFit="1"/>
@@ -656,6 +1004,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -939,7 +1315,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C187"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
@@ -1341,9 +1717,834 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C87"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="56.85546875" style="6" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" style="6" customWidth="1"/>
+    <col min="3" max="3" width="99.42578125" style="6" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="5"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="5"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>272</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A25" s="9"/>
+      <c r="B25" s="9"/>
+      <c r="C25" s="5"/>
+    </row>
+    <row r="26" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A26" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="C26" s="11" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A27" s="10" t="s">
+        <v>210</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="C27" s="11" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A28" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="B28" s="5"/>
+      <c r="C28" s="11"/>
+    </row>
+    <row r="29" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A29" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="B29" s="5"/>
+      <c r="C29" s="11"/>
+    </row>
+    <row r="30" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A30" s="10" t="s">
+        <v>213</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="C30" s="11" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A31" s="10" t="s">
+        <v>214</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="C31" s="11" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A32" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="B32" s="5"/>
+      <c r="C32" s="11"/>
+    </row>
+    <row r="33" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A33" s="10" t="s">
+        <v>216</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="C33" s="11" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A34" s="10" t="s">
+        <v>217</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="C34" s="11" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A35" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="C35" s="11" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A36" s="10" t="s">
+        <v>219</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="C36" s="11" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A37" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="C37" s="11" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A38" s="10" t="s">
+        <v>221</v>
+      </c>
+      <c r="B38" s="5"/>
+      <c r="C38" s="11"/>
+    </row>
+    <row r="39" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A39" s="10" t="s">
+        <v>222</v>
+      </c>
+      <c r="B39" s="5"/>
+      <c r="C39" s="11"/>
+    </row>
+    <row r="40" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A40" s="10" t="s">
+        <v>223</v>
+      </c>
+      <c r="B40" s="5"/>
+      <c r="C40" s="11"/>
+    </row>
+    <row r="41" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A41" s="10" t="s">
+        <v>224</v>
+      </c>
+      <c r="B41" s="5"/>
+      <c r="C41" s="11"/>
+    </row>
+    <row r="42" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A42" s="10" t="s">
+        <v>225</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="C42" s="11" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A43" s="10" t="s">
+        <v>226</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="C43" s="11" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A44" s="10" t="s">
+        <v>227</v>
+      </c>
+      <c r="B44" s="5"/>
+      <c r="C44" s="11"/>
+    </row>
+    <row r="45" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A45" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="C45" s="11" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A46" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="B46" s="5"/>
+      <c r="C46" s="11"/>
+    </row>
+    <row r="47" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A47" s="10" t="s">
+        <v>230</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="C47" s="11" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A48" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="C48" s="11" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A49" s="10" t="s">
+        <v>232</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="C49" s="11" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A50" s="10" t="s">
+        <v>233</v>
+      </c>
+      <c r="B50" s="5"/>
+      <c r="C50" s="11"/>
+    </row>
+    <row r="51" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A51" s="10" t="s">
+        <v>234</v>
+      </c>
+      <c r="B51" s="5"/>
+      <c r="C51" s="11"/>
+    </row>
+    <row r="52" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A52" s="10" t="s">
+        <v>235</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="C52" s="11" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A53" s="10" t="s">
+        <v>236</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="C53" s="11" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A54" s="10" t="s">
+        <v>237</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="C54" s="11" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A55" s="10" t="s">
+        <v>238</v>
+      </c>
+      <c r="B55" s="5"/>
+      <c r="C55" s="11"/>
+    </row>
+    <row r="56" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A56" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="B56" s="5"/>
+      <c r="C56" s="11"/>
+    </row>
+    <row r="57" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A57" s="10" t="s">
+        <v>240</v>
+      </c>
+      <c r="B57" s="5"/>
+      <c r="C57" s="11"/>
+    </row>
+    <row r="58" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A58" s="10" t="s">
+        <v>241</v>
+      </c>
+      <c r="B58" s="5"/>
+      <c r="C58" s="11"/>
+    </row>
+    <row r="59" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A59" s="10" t="s">
+        <v>242</v>
+      </c>
+      <c r="B59" s="5"/>
+      <c r="C59" s="11"/>
+    </row>
+    <row r="60" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A60" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="B60" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="C60" s="11" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A61" s="10" t="s">
+        <v>244</v>
+      </c>
+      <c r="B61" s="5"/>
+      <c r="C61" s="11"/>
+    </row>
+    <row r="62" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A62" s="10" t="s">
+        <v>245</v>
+      </c>
+      <c r="B62" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="C62" s="11" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A63" s="10" t="s">
+        <v>246</v>
+      </c>
+      <c r="B63" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="C63" s="11" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A64" s="10" t="s">
+        <v>247</v>
+      </c>
+      <c r="B64" s="5"/>
+      <c r="C64" s="11"/>
+    </row>
+    <row r="65" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A65" s="10" t="s">
+        <v>248</v>
+      </c>
+      <c r="B65" s="5"/>
+      <c r="C65" s="11"/>
+    </row>
+    <row r="66" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A66" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="B66" s="5"/>
+      <c r="C66" s="11"/>
+    </row>
+    <row r="67" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A67" s="10" t="s">
+        <v>250</v>
+      </c>
+      <c r="B67" s="5"/>
+      <c r="C67" s="11"/>
+    </row>
+    <row r="68" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A68" s="10" t="s">
+        <v>251</v>
+      </c>
+      <c r="B68" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="C68" s="11" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A69" s="10" t="s">
+        <v>252</v>
+      </c>
+      <c r="B69" s="5"/>
+      <c r="C69" s="11"/>
+    </row>
+    <row r="70" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A70" s="10" t="s">
+        <v>253</v>
+      </c>
+      <c r="B70" s="5"/>
+      <c r="C70" s="11"/>
+    </row>
+    <row r="71" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A71" s="10" t="s">
+        <v>254</v>
+      </c>
+      <c r="B71" s="5"/>
+      <c r="C71" s="11"/>
+    </row>
+    <row r="72" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A72" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="B72" s="5"/>
+      <c r="C72" s="11"/>
+    </row>
+    <row r="73" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A73" s="10" t="s">
+        <v>256</v>
+      </c>
+      <c r="B73" s="5"/>
+      <c r="C73" s="11"/>
+    </row>
+    <row r="74" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A74" s="10" t="s">
+        <v>257</v>
+      </c>
+      <c r="B74" s="5"/>
+      <c r="C74" s="11"/>
+    </row>
+    <row r="75" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A75" s="10" t="s">
+        <v>258</v>
+      </c>
+      <c r="B75" s="5"/>
+      <c r="C75" s="11"/>
+    </row>
+    <row r="76" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A76" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="B76" s="5"/>
+      <c r="C76" s="11"/>
+    </row>
+    <row r="77" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A77" s="10" t="s">
+        <v>260</v>
+      </c>
+      <c r="B77" s="5"/>
+      <c r="C77" s="11"/>
+    </row>
+    <row r="78" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A78" s="10" t="s">
+        <v>261</v>
+      </c>
+      <c r="B78" s="5"/>
+      <c r="C78" s="11"/>
+    </row>
+    <row r="79" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A79" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="B79" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="C79" s="11" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A80" s="10" t="s">
+        <v>263</v>
+      </c>
+      <c r="B80" s="5"/>
+      <c r="C80" s="11"/>
+    </row>
+    <row r="81" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A81" s="10" t="s">
+        <v>264</v>
+      </c>
+      <c r="B81" s="5"/>
+      <c r="C81" s="11"/>
+    </row>
+    <row r="82" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A82" s="10" t="s">
+        <v>265</v>
+      </c>
+      <c r="B82" s="5"/>
+      <c r="C82" s="11"/>
+    </row>
+    <row r="83" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A83" s="10" t="s">
+        <v>266</v>
+      </c>
+      <c r="B83" s="5"/>
+      <c r="C83" s="11"/>
+    </row>
+    <row r="84" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A84" s="10" t="s">
+        <v>267</v>
+      </c>
+      <c r="B84" s="5"/>
+      <c r="C84" s="11"/>
+    </row>
+    <row r="85" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A85" s="10" t="s">
+        <v>268</v>
+      </c>
+      <c r="B85" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="C85" s="11" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A86" s="12" t="s">
+        <v>269</v>
+      </c>
+      <c r="B86" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="C86" s="13" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" s="14" t="s">
+        <v>283</v>
+      </c>
+      <c r="B87" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="C87" s="6" t="s">
+        <v>284</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A3" r:id="rId1" display="https://www.geeksforgeeks.org/dynamic-programming-set-4-longest-common-subsequence/"/>
+    <hyperlink ref="A4" r:id="rId2" display="https://www.geeksforgeeks.org/dynamic-programming-set-3-longest-increasing-subsequence/"/>
+    <hyperlink ref="A5" r:id="rId3" display="https://www.geeksforgeeks.org/dynamic-programming-set-5-edit-distance/"/>
+    <hyperlink ref="A6" r:id="rId4" display="https://www.geeksforgeeks.org/partition-a-set-into-two-subsets-such-that-the-difference-of-subset-sums-is-minimum/"/>
+    <hyperlink ref="A7" r:id="rId5" display="https://www.geeksforgeeks.org/count-number-of-ways-to-cover-a-distance/"/>
+    <hyperlink ref="A8" r:id="rId6" display="https://www.geeksforgeeks.org/find-the-longest-path-in-a-matrix-with-given-constraints/"/>
+    <hyperlink ref="A9" r:id="rId7" display="https://www.geeksforgeeks.org/dynamic-programming-subset-sum-problem/"/>
+    <hyperlink ref="A10" r:id="rId8" display="https://www.geeksforgeeks.org/dynamic-programming-set-31-optimal-strategy-for-a-game/"/>
+    <hyperlink ref="A11" r:id="rId9" display="https://www.geeksforgeeks.org/dynamic-programming-set-10-0-1-knapsack-problem/"/>
+    <hyperlink ref="A12" r:id="rId10" display="https://www.geeksforgeeks.org/dynamic-programming-set-37-boolean-parenthesization-problem/"/>
+    <hyperlink ref="A13" r:id="rId11" display="https://www.geeksforgeeks.org/shortest-common-supersequence/"/>
+    <hyperlink ref="A14" r:id="rId12" display="https://www.geeksforgeeks.org/dynamic-programming-set-8-matrix-chain-multiplication/"/>
+    <hyperlink ref="A15" r:id="rId13" display="https://www.geeksforgeeks.org/dynamic-programming-set-18-partition-problem/"/>
+    <hyperlink ref="A16" r:id="rId14" display="https://www.geeksforgeeks.org/dynamic-programming-set-13-cutting-a-rod/"/>
+    <hyperlink ref="A17" r:id="rId15" display="https://www.geeksforgeeks.org/dynamic-programming-set-7-coin-change/"/>
+    <hyperlink ref="A18" r:id="rId16" display="https://www.geeksforgeeks.org/dynamic-programming-set-32-word-break-problem/"/>
+    <hyperlink ref="A19" r:id="rId17" display="https://www.geeksforgeeks.org/dynamic-programming-set-36-cut-a-rope-to-maximize-product/"/>
+    <hyperlink ref="A20" r:id="rId18" display="https://www.geeksforgeeks.org/dice-throw-problem/"/>
+    <hyperlink ref="A21" r:id="rId19" display="https://www.geeksforgeeks.org/dynamic-programming-set-21-box-stacking-problem/"/>
+    <hyperlink ref="A22" r:id="rId20" display="https://www.geeksforgeeks.org/dynamic-programming-set-11-egg-dropping-puzzle/"/>
+    <hyperlink ref="A26" r:id="rId21" tooltip="BitonicSequence.java" display="https://github.com/mission-peace/interview/blob/master/src/com/interview/dynamic/BitonicSequence.java"/>
+    <hyperlink ref="A27" r:id="rId22" tooltip="BoxStacking.java" display="https://github.com/mission-peace/interview/blob/master/src/com/interview/dynamic/BoxStacking.java"/>
+    <hyperlink ref="A28" r:id="rId23" tooltip="BreakMultipleWordsWithNoSpaceIntoSpace.java" display="https://github.com/mission-peace/interview/blob/master/src/com/interview/dynamic/BreakMultipleWordsWithNoSpaceIntoSpace.java"/>
+    <hyperlink ref="A29" r:id="rId24" tooltip="BurstBalloons.java" display="https://github.com/mission-peace/interview/blob/master/src/com/interview/dynamic/BurstBalloons.java"/>
+    <hyperlink ref="A30" r:id="rId25" tooltip="CoinChanging.java" display="https://github.com/mission-peace/interview/blob/master/src/com/interview/dynamic/CoinChanging.java"/>
+    <hyperlink ref="A31" r:id="rId26" tooltip="CoinChangingMinimumCoin.java" display="https://github.com/mission-peace/interview/blob/master/src/com/interview/dynamic/CoinChangingMinimumCoin.java"/>
+    <hyperlink ref="A32" r:id="rId27" tooltip="CountAs.java" display="https://github.com/mission-peace/interview/blob/master/src/com/interview/dynamic/CountAs.java"/>
+    <hyperlink ref="A33" r:id="rId28" tooltip="CountNumberOfBinaryWithoutConsecutive1s.java" display="https://github.com/mission-peace/interview/blob/master/src/com/interview/dynamic/CountNumberOfBinaryWithoutConsecutive1s.java"/>
+    <hyperlink ref="A34" r:id="rId29" tooltip="CountNumberOfTreePreorder.java" display="https://github.com/mission-peace/interview/blob/master/src/com/interview/dynamic/CountNumberOfTreePreorder.java"/>
+    <hyperlink ref="A35" r:id="rId30" tooltip="CountNumberOfTreesInBST.java" display="https://github.com/mission-peace/interview/blob/master/src/com/interview/dynamic/CountNumberOfTreesInBST.java"/>
+    <hyperlink ref="A36" r:id="rId31" tooltip="CutRodToMinimizeCost.java" display="https://github.com/mission-peace/interview/blob/master/src/com/interview/dynamic/CutRodToMinimizeCost.java"/>
+    <hyperlink ref="A37" r:id="rId32" tooltip="CuttingRod.java" display="https://github.com/mission-peace/interview/blob/master/src/com/interview/dynamic/CuttingRod.java"/>
+    <hyperlink ref="A38" r:id="rId33" tooltip="DecodeWays.java" display="https://github.com/mission-peace/interview/blob/master/src/com/interview/dynamic/DecodeWays.java"/>
+    <hyperlink ref="A39" r:id="rId34" tooltip="DiceThrowWays.java" display="https://github.com/mission-peace/interview/blob/master/src/com/interview/dynamic/DiceThrowWays.java"/>
+    <hyperlink ref="A40" r:id="rId35" tooltip="DistinctSubsequence.java" display="https://github.com/mission-peace/interview/blob/master/src/com/interview/dynamic/DistinctSubsequence.java"/>
+    <hyperlink ref="A41" r:id="rId36" tooltip="DungeonGame.java" display="https://github.com/mission-peace/interview/blob/master/src/com/interview/dynamic/DungeonGame.java"/>
+    <hyperlink ref="A42" r:id="rId37" tooltip="EditDistance.java" display="https://github.com/mission-peace/interview/blob/master/src/com/interview/dynamic/EditDistance.java"/>
+    <hyperlink ref="A43" r:id="rId38" tooltip="EggDropping.java" display="https://github.com/mission-peace/interview/blob/master/src/com/interview/dynamic/EggDropping.java"/>
+    <hyperlink ref="A44" r:id="rId39" tooltip="ExpressionEvaluation.java" display="https://github.com/mission-peace/interview/blob/master/src/com/interview/dynamic/ExpressionEvaluation.java"/>
+    <hyperlink ref="A45" r:id="rId40" tooltip="FibonacciSeries.java" display="https://github.com/mission-peace/interview/blob/master/src/com/interview/dynamic/FibonacciSeries.java"/>
+    <hyperlink ref="A46" r:id="rId41" tooltip="Immutable2DSumRangeQuery.java" display="https://github.com/mission-peace/interview/blob/master/src/com/interview/dynamic/Immutable2DSumRangeQuery.java"/>
+    <hyperlink ref="A47" r:id="rId42" tooltip="Knapsack01.java" display="https://github.com/mission-peace/interview/blob/master/src/com/interview/dynamic/Knapsack01.java"/>
+    <hyperlink ref="A48" r:id="rId43" tooltip="LongestCommonSubsequence.java" display="https://github.com/mission-peace/interview/blob/master/src/com/interview/dynamic/LongestCommonSubsequence.java"/>
+    <hyperlink ref="A49" r:id="rId44" tooltip="LongestCommonSubstring.java" display="https://github.com/mission-peace/interview/blob/master/src/com/interview/dynamic/LongestCommonSubstring.java"/>
+    <hyperlink ref="A50" r:id="rId45" tooltip="LongestEvenLengthSubstringOfEqualHalf.java" display="https://github.com/mission-peace/interview/blob/master/src/com/interview/dynamic/LongestEvenLengthSubstringOfEqualHalf.java"/>
+    <hyperlink ref="A51" r:id="rId46" tooltip="LongestIncreasingPath.java" display="https://github.com/mission-peace/interview/blob/master/src/com/interview/dynamic/LongestIncreasingPath.java"/>
+    <hyperlink ref="A52" r:id="rId47" tooltip="LongestIncreasingSubsequence.java" display="https://github.com/mission-peace/interview/blob/master/src/com/interview/dynamic/LongestIncreasingSubsequence.java"/>
+    <hyperlink ref="A53" r:id="rId48" tooltip="LongestPalindromicSubsequence.java" display="https://github.com/mission-peace/interview/blob/master/src/com/interview/dynamic/LongestPalindromicSubsequence.java"/>
+    <hyperlink ref="A54" r:id="rId49" tooltip="MatrixMultiplicationCost.java" display="https://github.com/mission-peace/interview/blob/master/src/com/interview/dynamic/MatrixMultiplicationCost.java"/>
+    <hyperlink ref="A55" r:id="rId50" tooltip="MaxSumForNonAdjacentElements.java" display="https://github.com/mission-peace/interview/blob/master/src/com/interview/dynamic/MaxSumForNonAdjacentElements.java"/>
+    <hyperlink ref="A56" r:id="rId51" tooltip="MaximizeSkiGates.java" display="https://github.com/mission-peace/interview/blob/master/src/com/interview/dynamic/MaximizeSkiGates.java"/>
+    <hyperlink ref="A57" r:id="rId52" tooltip="MaximumLengthChainPair.java" display="https://github.com/mission-peace/interview/blob/master/src/com/interview/dynamic/MaximumLengthChainPair.java"/>
+    <hyperlink ref="A58" r:id="rId53" tooltip="MaximumProductCutting.java" display="https://github.com/mission-peace/interview/blob/master/src/com/interview/dynamic/MaximumProductCutting.java"/>
+    <hyperlink ref="A59" r:id="rId54" tooltip="MaximumRectangularSubmatrixOf1s.java" display="https://github.com/mission-peace/interview/blob/master/src/com/interview/dynamic/MaximumRectangularSubmatrixOf1s.java"/>
+    <hyperlink ref="A60" r:id="rId55" tooltip="MaximumSizeSubMatrix.java" display="https://github.com/mission-peace/interview/blob/master/src/com/interview/dynamic/MaximumSizeSubMatrix.java"/>
+    <hyperlink ref="A61" r:id="rId56" tooltip="MaximumSumSubsequence.java" display="https://github.com/mission-peace/interview/blob/master/src/com/interview/dynamic/MaximumSumSubsequence.java"/>
+    <hyperlink ref="A62" r:id="rId57" tooltip="MinCostPath.java" display="https://github.com/mission-peace/interview/blob/master/src/com/interview/dynamic/MinCostPath.java"/>
+    <hyperlink ref="A63" r:id="rId58" tooltip="MinJumpToReachEnd.java" display="https://github.com/mission-peace/interview/blob/master/src/com/interview/dynamic/MinJumpToReachEnd.java"/>
+    <hyperlink ref="A64" r:id="rId59" tooltip="MinimumCostTrainTicket.java" display="https://github.com/mission-peace/interview/blob/master/src/com/interview/dynamic/MinimumCostTrainTicket.java"/>
+    <hyperlink ref="A65" r:id="rId60" tooltip="MinimumNumberOfPerfectSquares.java" display="https://github.com/mission-peace/interview/blob/master/src/com/interview/dynamic/MinimumNumberOfPerfectSquares.java"/>
+    <hyperlink ref="A66" r:id="rId61" tooltip="MinimumTriangleSum.java" display="https://github.com/mission-peace/interview/blob/master/src/com/interview/dynamic/MinimumTriangleSum.java"/>
+    <hyperlink ref="A67" r:id="rId62" tooltip="NPotGold.java" display="https://github.com/mission-peace/interview/blob/master/src/com/interview/dynamic/NPotGold.java"/>
+    <hyperlink ref="A68" r:id="rId63" tooltip="NumberOfPathsInMxNMatrix.java" display="https://github.com/mission-peace/interview/blob/master/src/com/interview/dynamic/NumberOfPathsInMxNMatrix.java"/>
+    <hyperlink ref="A69" r:id="rId64" tooltip="NumberOfWaysToScorePoints.java" display="https://github.com/mission-peace/interview/blob/master/src/com/interview/dynamic/NumberOfWaysToScorePoints.java"/>
+    <hyperlink ref="A70" r:id="rId65" tooltip="OptimalTreeSearch.java" display="https://github.com/mission-peace/interview/blob/master/src/com/interview/dynamic/OptimalTreeSearch.java"/>
+    <hyperlink ref="A71" r:id="rId66" tooltip="PaintHouse.java" display="https://github.com/mission-peace/interview/blob/master/src/com/interview/dynamic/PaintHouse.java"/>
+    <hyperlink ref="A72" r:id="rId67" tooltip="PalindromePartition.java" display="https://github.com/mission-peace/interview/blob/master/src/com/interview/dynamic/PalindromePartition.java"/>
+    <hyperlink ref="A73" r:id="rId68" tooltip="PhoneDialNumberOfCombinationOfSizeK.java" display="https://github.com/mission-peace/interview/blob/master/src/com/interview/dynamic/PhoneDialNumberOfCombinationOfSizeK.java"/>
+    <hyperlink ref="A74" r:id="rId69" tooltip="RegexMatching.java" display="https://github.com/mission-peace/interview/blob/master/src/com/interview/dynamic/RegexMatching.java"/>
+    <hyperlink ref="A75" r:id="rId70" tooltip="RemoveFromEndToMake2IntoMinGreaterThanMax.java" display="https://github.com/mission-peace/interview/blob/master/src/com/interview/dynamic/RemoveFromEndToMake2IntoMinGreaterThanMax.java"/>
+    <hyperlink ref="A76" r:id="rId71" tooltip="ScrambledString.java" display="https://github.com/mission-peace/interview/blob/master/src/com/interview/dynamic/ScrambledString.java"/>
+    <hyperlink ref="A77" r:id="rId72" tooltip="StockBuySellKTransactions.java" display="https://github.com/mission-peace/interview/blob/master/src/com/interview/dynamic/StockBuySellKTransactions.java"/>
+    <hyperlink ref="A78" r:id="rId73" tooltip="SubRectangularMatrixWithMaximumSum.java" display="https://github.com/mission-peace/interview/blob/master/src/com/interview/dynamic/SubRectangularMatrixWithMaximumSum.java"/>
+    <hyperlink ref="A79" r:id="rId74" tooltip="SubsetSum.java" display="https://github.com/mission-peace/interview/blob/master/src/com/interview/dynamic/SubsetSum.java"/>
+    <hyperlink ref="A80" r:id="rId75" tooltip="SubsquareSurrounedByXs.java" display="https://github.com/mission-peace/interview/blob/master/src/com/interview/dynamic/SubsquareSurrounedByXs.java"/>
+    <hyperlink ref="A81" r:id="rId76" tooltip="SymbolExpressionEvaluation.java" display="https://github.com/mission-peace/interview/blob/master/src/com/interview/dynamic/SymbolExpressionEvaluation.java"/>
+    <hyperlink ref="A82" r:id="rId77" tooltip="TextJustification.java" display="https://github.com/mission-peace/interview/blob/master/src/com/interview/dynamic/TextJustification.java"/>
+    <hyperlink ref="A83" r:id="rId78" tooltip="TwoStringInterleavingToFormThird.java" display="https://github.com/mission-peace/interview/blob/master/src/com/interview/dynamic/TwoStringInterleavingToFormThird.java"/>
+    <hyperlink ref="A84" r:id="rId79" tooltip="UglyNumbers.java" display="https://github.com/mission-peace/interview/blob/master/src/com/interview/dynamic/UglyNumbers.java"/>
+    <hyperlink ref="A85" r:id="rId80" tooltip="WeightedJobSchedulingMaximumProfit.java" display="https://github.com/mission-peace/interview/blob/master/src/com/interview/dynamic/WeightedJobSchedulingMaximumProfit.java"/>
+    <hyperlink ref="A86" r:id="rId81" tooltip="WildCardMatching.java" display="https://github.com/mission-peace/interview/blob/master/src/com/interview/dynamic/WildCardMatching.java"/>
+    <hyperlink ref="A87" r:id="rId82" display="https://leetcode.com/problems/longest-valid-parentheses"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId83"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B100"/>
   <sheetViews>
-    <sheetView topLeftCell="A30" workbookViewId="0">
+    <sheetView topLeftCell="A94" workbookViewId="0">
       <selection activeCell="B136" sqref="B136"/>
     </sheetView>
   </sheetViews>
@@ -1961,12 +3162,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A33" sqref="A1:A1048576"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
